--- a/data/output/FV2410_FV2404/UTILMD/55178.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55178.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3796" uniqueCount="318">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3817" uniqueCount="318">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1088,6 +1088,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U161" totalsRowShown="0">
+  <autoFilter ref="A1:U161"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1377,7 +1407,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9363,5 +9396,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55178.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55178.xlsx
@@ -2013,7 +2013,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2723,7 +2723,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3605,7 +3605,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3917,7 +3917,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4117,7 +4117,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4559,7 +4559,7 @@
         <v>289</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4725,7 +4725,7 @@
         <v>290</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -4941,7 +4941,7 @@
         <v>291</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5311,7 +5311,7 @@
         <v>293</v>
       </c>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -5681,7 +5681,7 @@
         <v>295</v>
       </c>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -6051,7 +6051,7 @@
         <v>297</v>
       </c>
       <c r="L79" s="4"/>
-      <c r="M79" s="2" t="s">
+      <c r="M79" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -6421,7 +6421,7 @@
         <v>299</v>
       </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6791,7 +6791,7 @@
         <v>300</v>
       </c>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -7159,7 +7159,7 @@
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -7355,7 +7355,7 @@
       </c>
       <c r="K104" s="2"/>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -7553,7 +7553,7 @@
         <v>302</v>
       </c>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -7973,7 +7973,7 @@
         <v>305</v>
       </c>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -8121,7 +8121,7 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -8447,7 +8447,7 @@
         <v>307</v>
       </c>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -8641,54 +8641,54 @@
       </c>
     </row>
     <row r="129" spans="1:22">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C129" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="D129" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5" t="s">
+      <c r="E129" s="2"/>
+      <c r="F129" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
-      <c r="I129" s="5"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
       <c r="J129" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="K129" s="5" t="s">
+      <c r="K129" s="2" t="s">
         <v>308</v>
       </c>
       <c r="L129" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="M129" s="5" t="s">
+      <c r="M129" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N129" s="5" t="s">
+      <c r="N129" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O129" s="5" t="s">
+      <c r="O129" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P129" s="5"/>
-      <c r="Q129" s="5" t="s">
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="R129" s="5"/>
-      <c r="S129" s="5"/>
-      <c r="T129" s="5"/>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
+      <c r="T129" s="2"/>
       <c r="U129" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="V129" s="5" t="s">
+      <c r="V129" s="2" t="s">
         <v>308</v>
       </c>
     </row>
@@ -8889,7 +8889,7 @@
         <v>310</v>
       </c>
       <c r="L133" s="4"/>
-      <c r="M133" s="2" t="s">
+      <c r="M133" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N133" s="2" t="s">
@@ -9051,7 +9051,7 @@
         <v>311</v>
       </c>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -9201,7 +9201,7 @@
         <v>312</v>
       </c>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -9367,7 +9367,7 @@
         <v>313</v>
       </c>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -9529,7 +9529,7 @@
         <v>314</v>
       </c>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -9679,7 +9679,7 @@
         <v>315</v>
       </c>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -9845,7 +9845,7 @@
         <v>316</v>
       </c>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N151" s="2" t="s">
@@ -10005,7 +10005,7 @@
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -10265,7 +10265,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N159" s="2"/>
